--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.021821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.021821.xlsx_with_dialog_acts.xlsx
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4047,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5229,12 +5229,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5609,12 +5609,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5989,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7737,12 +7737,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8167,12 +8167,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8205,12 +8205,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8665,12 +8665,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8931,12 +8931,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9011,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9969,12 +9969,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10007,12 +10007,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10197,12 +10197,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10235,12 +10235,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10615,12 +10615,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11527,12 +11527,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11831,12 +11831,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12097,12 +12097,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12173,12 +12173,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12287,12 +12287,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
